--- a/项目目标.xlsx
+++ b/项目目标.xlsx
@@ -39,16 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
-  <si>
-    <t>Criteria 1</t>
-  </si>
-  <si>
-    <t>Criteria 2</t>
-  </si>
-  <si>
-    <t>Criteria 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>满足？</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,6 +104,30 @@
   </si>
   <si>
     <t>需求1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用预期的吞吐量是多少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求和响应之间的延迟是多少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用支持多少并发用户或并发任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当并发用户或并发任务达到最大时，可接受的吞吐量和延迟是多少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差情况下的延迟是多少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要使垃圾收集的延迟在可容忍范围内，垃圾收集的频率应该是多少</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -401,9 +416,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -415,24 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -440,37 +455,7 @@
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -594,19 +579,19 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Analysis" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Assess Opportunities " pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Self Assessment" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Self Assessment 2" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Skills and Personal Development" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1164,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1181,16 +1166,16 @@
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="24"/>
+      <c r="C1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1202,7 +1187,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="10"/>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1210,259 +1195,286 @@
       <c r="A5" s="2"/>
       <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>3</v>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="B13" s="12"/>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="18"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12"/>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D22:D24 D16:D17">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D25:D27 D19:D20">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D6:D11 D13:D14">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D16:D17 D6:D8 D10:D11 D22:D24 D27:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D19:D20 D6:D11 D13:D14 D25:D27 D30:D31">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>